--- a/biology/Médecine/Astérion_(anatomie)/Astérion_(anatomie).xlsx
+++ b/biology/Médecine/Astérion_(anatomie)/Astérion_(anatomie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ast%C3%A9rion_(anatomie)</t>
+          <t>Astérion_(anatomie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L' astérion est un point craniométrique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ast%C3%A9rion_(anatomie)</t>
+          <t>Astérion_(anatomie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'astérion est un point visible juste en arrière de l'oreille. C'est le point de rencontre de trois sutures crâniennes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'astérion est un point visible juste en arrière de l'oreille. C'est le point de rencontre de trois sutures crâniennes :
 la suture lambdoïde ;
 la suture pariéto-mastoïdienne ;
 la suture occipito-mastoïdienne.
@@ -521,7 +535,7 @@
 l'os pariétal.
 l'os occipital.
 la portion mastoïdienne de l'os temporal.
-Chez l'adulte, il se situe à 4 cm en arrière et 12 mm au-dessus du centre de l'entrée du conduit auditif .[réf. nécessaire] Sa relation avec d'autres structures anatomiques est assez variable[2].
+Chez l'adulte, il se situe à 4 cm en arrière et 12 mm au-dessus du centre de l'entrée du conduit auditif .[réf. nécessaire] Sa relation avec d'autres structures anatomiques est assez variable.
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ast%C3%A9rion_(anatomie)</t>
+          <t>Astérion_(anatomie)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'astérion est un point de repère anatomique en neurochirurgie. Il permet de planifier une entrée sécurisée dans le crâne pour certaines opérations, comme lors de l'utilisation de l'approche rétro-sigmoïde[1],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'astérion est un point de repère anatomique en neurochirurgie. Il permet de planifier une entrée sécurisée dans le crâne pour certaines opérations, comme lors de l'utilisation de l'approche rétro-sigmoïde,.
 </t>
         </is>
       </c>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ast%C3%A9rion_(anatomie)</t>
+          <t>Astérion_(anatomie)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'asterion tire son nom du grec ἀστέριον (astērion), signifiant "étoile" ou "étoilé".
 </t>
